--- a/仕様書（途中）/仕様書.xlsx
+++ b/仕様書（途中）/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="シーン" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -186,12 +186,59 @@
     <t>アイテム</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>例）</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plus２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plus３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plus１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plus１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルが１上がるごとにステータスポイント獲得</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現場所</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +301,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -275,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -443,13 +498,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +605,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4516,10 +4598,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M24"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4528,11 +4610,11 @@
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:13" ht="42" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:14" ht="42" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -4565,8 +4647,11 @@
       <c r="M2" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4601,8 +4686,11 @@
       <c r="M3" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N3" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -4637,8 +4725,11 @@
       <c r="M4" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N4" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4673,8 +4764,11 @@
       <c r="M5" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N5" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -4709,8 +4803,11 @@
       <c r="M6" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N6" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4729,8 +4826,11 @@
       <c r="M7" s="8">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4747,8 +4847,11 @@
       <c r="M8" s="8">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N8" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K9" s="8">
         <v>7</v>
       </c>
@@ -4758,8 +4861,11 @@
       <c r="M9" s="8">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N9" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K10" s="8">
         <v>8</v>
       </c>
@@ -4769,8 +4875,11 @@
       <c r="M10" s="8">
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N10" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K11" s="8">
         <v>9</v>
       </c>
@@ -4780,8 +4889,11 @@
       <c r="M11" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N11" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K12" s="8">
         <v>10</v>
       </c>
@@ -4791,90 +4903,171 @@
       <c r="M12" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N12" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K13" s="12">
         <v>11</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K14" s="10">
         <v>12</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K15" s="10">
         <v>13</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M15" s="8"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K16" s="10">
         <v>14</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M16" s="12"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K17" s="10">
         <v>15</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K18" s="10">
         <v>16</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K19" s="10">
         <v>17</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K20" s="10">
         <v>18</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K21" s="10">
         <v>19</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K22" s="10">
         <v>20</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K23" s="10">
         <v>21</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="11:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K24" s="10">
         <v>22</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="30" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="31" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2"/>
+      <c r="C31" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1">
+        <v>200</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1">
+        <v>40</v>
+      </c>
+      <c r="H32" s="1">
+        <v>35</v>
+      </c>
+      <c r="I32" s="1">
+        <v>60</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4888,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4898,6 +5091,7 @@
     <col min="12" max="12" width="14.25" customWidth="1"/>
     <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -4937,7 +5131,9 @@
       <c r="N3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="2:15" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="11"/>
@@ -4947,7 +5143,9 @@
       <c r="F4" s="26">
         <v>1</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="34">
+        <v>5</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -4965,7 +5163,9 @@
       <c r="F5" s="26">
         <v>3</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="34">
+        <v>8</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -4983,7 +5183,9 @@
       <c r="F6" s="27">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="36">
+        <v>14</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4998,8 +5200,12 @@
       <c r="C7" s="23"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="34">
+        <v>3</v>
+      </c>
+      <c r="G7" s="34">
+        <v>6</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
@@ -5014,8 +5220,12 @@
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="35">
+        <v>6</v>
+      </c>
+      <c r="G8" s="35">
+        <v>12</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
@@ -5030,8 +5240,12 @@
       <c r="C9" s="23"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="34">
+        <v>5</v>
+      </c>
+      <c r="G9" s="34">
+        <v>8</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
@@ -5046,7 +5260,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
@@ -5082,7 +5296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>

--- a/仕様書（途中）/仕様書.xlsx
+++ b/仕様書（途中）/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouki imamura\Desktop\先輩塾用\先輩塾制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouki imamura\Desktop\先輩塾制作\trunk\仕様書（途中）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="シーン" sheetId="3" r:id="rId1"/>
@@ -513,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +623,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5082,7 +5100,7 @@
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5146,12 +5164,24 @@
       <c r="G4" s="34">
         <v>5</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <v>5</v>
+      </c>
+      <c r="J4" s="34">
+        <v>5</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
+        <v>5</v>
+      </c>
+      <c r="M4" s="40">
+        <v>1</v>
+      </c>
       <c r="N4" s="13"/>
       <c r="O4" s="3"/>
     </row>
@@ -5166,12 +5196,24 @@
       <c r="G5" s="34">
         <v>8</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <v>10</v>
+      </c>
+      <c r="J5" s="34">
+        <v>10</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
+        <v>5</v>
+      </c>
+      <c r="M5" s="40">
+        <v>3</v>
+      </c>
       <c r="N5" s="13"/>
       <c r="O5" s="12"/>
     </row>
@@ -5186,12 +5228,24 @@
       <c r="G6" s="36">
         <v>14</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>15</v>
+      </c>
+      <c r="J6" s="36">
+        <v>15</v>
+      </c>
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
+        <v>5</v>
+      </c>
+      <c r="M6" s="42">
+        <v>6</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
@@ -5206,12 +5260,24 @@
       <c r="G7" s="34">
         <v>6</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37">
+        <v>7</v>
+      </c>
+      <c r="J7" s="40">
+        <v>10</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>5</v>
+      </c>
+      <c r="M7" s="40">
+        <v>4</v>
+      </c>
       <c r="N7" s="13"/>
       <c r="O7" s="12"/>
     </row>
@@ -5226,12 +5292,24 @@
       <c r="G8" s="35">
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
+        <v>14</v>
+      </c>
+      <c r="J8" s="39">
+        <v>15</v>
+      </c>
+      <c r="K8" s="39">
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <v>5</v>
+      </c>
+      <c r="M8" s="39">
+        <v>7</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="9"/>
     </row>
@@ -5246,12 +5324,24 @@
       <c r="G9" s="34">
         <v>8</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>16</v>
+      </c>
+      <c r="J9" s="40">
+        <v>18</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
+        <v>5</v>
+      </c>
+      <c r="M9" s="40">
+        <v>7</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="12"/>
     </row>

--- a/仕様書（途中）/仕様書.xlsx
+++ b/仕様書（途中）/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="シーン" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -187,13 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例）</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>plus２</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,6 +223,189 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得pt15の例）</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>覚えるスキル・魔法</t>
+    <rPh sb="0" eb="1">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無　</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃げる</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル選択時</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法選択時</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法名</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム選択時</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒した敵</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計獲得EXP</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -310,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,16 +786,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -642,6 +818,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,9 +1853,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>79181</xdr:colOff>
+      <xdr:colOff>587181</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>124931</xdr:rowOff>
+      <xdr:rowOff>113386</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2657092" cy="778996"/>
     <xdr:sp macro="" textlink="">
@@ -1623,7 +1865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737272" y="9361295"/>
+          <a:off x="1245272" y="9349750"/>
           <a:ext cx="2657092" cy="778996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1661,10 +1903,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243605</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>228839</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393694</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9475</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3057247" cy="778996"/>
     <xdr:sp macro="" textlink="">
@@ -1674,7 +1916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4192150" y="9927021"/>
+          <a:off x="1051785" y="10400384"/>
           <a:ext cx="3057247" cy="778996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2044,10 +2286,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>663864</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152351</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>650587</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>168514</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4339650" cy="1251048"/>
     <xdr:sp macro="" textlink="">
@@ -2057,7 +2299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9331614" y="5041851"/>
+          <a:off x="650587" y="15408514"/>
           <a:ext cx="4339650" cy="1251048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2095,9 +2337,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>136119</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>184101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7109640" cy="1251048"/>
@@ -2146,15 +2388,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2201,15 +2443,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>215035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2886</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2219,8 +2461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9334500" y="215035"/>
-          <a:ext cx="7337136" cy="1531216"/>
+          <a:off x="658091" y="14762308"/>
+          <a:ext cx="7241886" cy="1591829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2265,15 +2507,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>208684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>663286</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2330,9 +2572,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>292371</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>168226</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6733638" cy="1036502"/>
@@ -2442,9 +2684,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>276561</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9476</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6955750" cy="1036502"/>
@@ -2491,6 +2733,189 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>207913</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4493538" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="840922" y="5986413"/>
+          <a:ext cx="4493538" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>味方とコマンドの場所逆でも可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378691</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294326</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3669146" y="7488382"/>
+          <a:ext cx="1889907" cy="1877165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454165</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6376983" y="7516091"/>
+          <a:ext cx="1812126" cy="1794164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1073728" y="7506854"/>
+          <a:ext cx="1821873" cy="1805963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2912,7 +3337,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>473364</xdr:colOff>
+      <xdr:colOff>300182</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>15210</xdr:rowOff>
     </xdr:to>
@@ -2946,6 +3371,108 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380603</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>477067</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467068" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869967" y="8351067"/>
+          <a:ext cx="1467068" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>振り分け前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380603</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467068" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869967" y="9032249"/>
+          <a:ext cx="1467068" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>振り分け後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3541,10 +4068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K47"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G50" sqref="B43:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3877,10 +4404,10 @@
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="29"/>
@@ -3889,10 +4416,10 @@
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="29"/>
@@ -3901,10 +4428,10 @@
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="29"/>
@@ -3913,10 +4440,10 @@
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="29"/>
@@ -3925,10 +4452,10 @@
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="29"/>
@@ -3937,10 +4464,10 @@
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="29"/>
@@ -3949,10 +4476,10 @@
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="29"/>
@@ -3961,10 +4488,34 @@
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3975,15 +4526,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y35"/>
+  <dimension ref="B2:Y112"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -3996,19 +4550,8 @@
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -4021,19 +4564,8 @@
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -4046,19 +4578,8 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -4071,19 +4592,8 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -4096,19 +4606,8 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -4121,19 +4620,8 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -4146,19 +4634,8 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -4171,19 +4648,8 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -4196,19 +4662,8 @@
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -4221,19 +4676,8 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -4246,19 +4690,8 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4271,19 +4704,8 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -4296,19 +4718,8 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -4321,19 +4732,8 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -4346,17 +4746,6 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="29"/>
@@ -4371,17 +4760,6 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
@@ -4396,17 +4774,6 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29"/>
@@ -4421,17 +4788,6 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29"/>
@@ -4446,17 +4802,6 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
@@ -4471,17 +4816,6 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="29"/>
@@ -4496,17 +4830,6 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="29"/>
@@ -4521,25 +4844,1074 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="O35" s="30"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+    </row>
+    <row r="32" spans="2:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="3"/>
+      <c r="O33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="60"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="5"/>
+      <c r="O34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="61"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="5"/>
+      <c r="O35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="61"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="5"/>
+      <c r="O36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="61"/>
+    </row>
+    <row r="37" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="62"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="5"/>
+      <c r="O39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="5"/>
+      <c r="O40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="60"/>
+    </row>
+    <row r="41" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="61"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2"/>
+      <c r="C42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="O42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q42" s="61"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="O43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="61"/>
+    </row>
+    <row r="44" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B44" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="O44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="62"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4"/>
+      <c r="C45" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B46" s="4"/>
+      <c r="C46" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="7"/>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="58">
+        <v>1</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="58">
+        <v>1</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="58">
+        <v>1</v>
+      </c>
+      <c r="J47" s="47"/>
+      <c r="K47" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="58">
+        <v>1</v>
+      </c>
+      <c r="M47" s="47"/>
+      <c r="O47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P47" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="44"/>
+      <c r="M48" s="49"/>
+      <c r="O48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="44"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="44"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="44"/>
+      <c r="M49" s="49"/>
+      <c r="O49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P49" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="57"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="49"/>
+      <c r="O50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B51" s="48"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="49"/>
+      <c r="O51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="48"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="49"/>
+    </row>
+    <row r="53" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="50"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+    </row>
+    <row r="98" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="31"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B101" s="6"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="4"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="4"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="4"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B105" s="4"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="2"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="4"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="4"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="4"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="4"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="4"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B112" s="6"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4547,7 +5919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:E28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -4616,23 +5988,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" width="10.9140625" customWidth="1"/>
     <col min="10" max="10" width="10.4140625" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:14" ht="42" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:15" ht="42" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -4666,10 +6040,13 @@
         <v>22</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4707,8 +6084,11 @@
       <c r="N3" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -4746,8 +6126,11 @@
       <c r="N4" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O4" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4785,8 +6168,11 @@
       <c r="N5" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -4821,11 +6207,14 @@
       <c r="M6" s="8">
         <v>100</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4847,8 +6236,9 @@
       <c r="N7" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4868,8 +6258,9 @@
       <c r="N8" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K9" s="8">
         <v>7</v>
       </c>
@@ -4882,8 +6273,9 @@
       <c r="N9" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K10" s="8">
         <v>8</v>
       </c>
@@ -4896,8 +6288,9 @@
       <c r="N10" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K11" s="8">
         <v>9</v>
       </c>
@@ -4910,8 +6303,9 @@
       <c r="N11" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K12" s="8">
         <v>10</v>
       </c>
@@ -4924,168 +6318,360 @@
       <c r="N12" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K13" s="12">
         <v>11</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L13" s="12">
+        <v>110</v>
+      </c>
+      <c r="M13" s="12">
+        <v>660</v>
+      </c>
+      <c r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K14" s="10">
         <v>12</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L14" s="10">
+        <v>120</v>
+      </c>
+      <c r="M14" s="10">
+        <v>780</v>
+      </c>
+      <c r="N14" s="12">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K15" s="10">
         <v>13</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L15" s="10">
+        <v>130</v>
+      </c>
+      <c r="M15" s="8">
+        <v>910</v>
+      </c>
+      <c r="N15" s="10">
+        <v>40</v>
+      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K16" s="10">
         <v>14</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L16" s="10">
+        <v>140</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1050</v>
+      </c>
+      <c r="N16" s="10">
+        <v>40</v>
+      </c>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K17" s="10">
         <v>15</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L17" s="10">
+        <v>150</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="10">
+        <v>40</v>
+      </c>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K18" s="10">
         <v>16</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L18" s="10">
+        <v>160</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1360</v>
+      </c>
+      <c r="N18" s="10">
+        <v>50</v>
+      </c>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K19" s="10">
         <v>17</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L19" s="10">
+        <v>170</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1530</v>
+      </c>
+      <c r="N19" s="10">
+        <v>50</v>
+      </c>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K20" s="10">
         <v>18</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L20" s="10">
+        <v>180</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1710</v>
+      </c>
+      <c r="N20" s="10">
+        <v>50</v>
+      </c>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K21" s="10">
         <v>19</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L21" s="10">
+        <v>190</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1900</v>
+      </c>
+      <c r="N21" s="10">
+        <v>50</v>
+      </c>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K22" s="10">
         <v>20</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L22" s="10">
+        <v>200</v>
+      </c>
+      <c r="M22" s="10">
+        <v>2100</v>
+      </c>
+      <c r="N22" s="10">
+        <v>50</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K23" s="10">
         <v>21</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L23" s="10">
+        <v>210</v>
+      </c>
+      <c r="M23" s="10">
+        <v>2310</v>
+      </c>
+      <c r="N23" s="10">
+        <v>50</v>
+      </c>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K24" s="10">
         <v>22</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="30" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="31" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="2"/>
-      <c r="C31" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="2:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="33" t="s">
+      <c r="L24" s="10">
+        <v>220</v>
+      </c>
+      <c r="M24" s="10">
+        <v>2530</v>
+      </c>
+      <c r="N24" s="10">
+        <v>50</v>
+      </c>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K25" s="2">
+        <v>23</v>
+      </c>
+      <c r="L25" s="8">
+        <v>230</v>
+      </c>
+      <c r="M25" s="8">
+        <v>2760</v>
+      </c>
+      <c r="N25" s="3">
+        <v>50</v>
+      </c>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K26" s="11">
         <v>24</v>
       </c>
-      <c r="C32" s="1">
+      <c r="L26" s="12">
+        <v>240</v>
+      </c>
+      <c r="M26" s="12">
+        <v>3000</v>
+      </c>
+      <c r="N26" s="13">
+        <v>50</v>
+      </c>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K27" s="6">
+        <v>25</v>
+      </c>
+      <c r="L27" s="10">
+        <v>250</v>
+      </c>
+      <c r="M27" s="10">
+        <v>3250</v>
+      </c>
+      <c r="N27" s="7">
+        <v>60</v>
+      </c>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="31" spans="2:15" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:15" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="4"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="2">
         <v>75</v>
       </c>
-      <c r="D32" s="1">
+      <c r="G33" s="31">
         <v>200</v>
       </c>
-      <c r="E32" s="1">
+      <c r="H33" s="31">
         <v>10</v>
       </c>
-      <c r="F32" s="1">
+      <c r="I33" s="31">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
+      <c r="J33" s="31">
         <v>40</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K33" s="31">
         <v>35</v>
       </c>
-      <c r="I32" s="1">
+      <c r="L33" s="3">
         <v>60</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B33" s="6"/>
-      <c r="C33" s="14" t="s">
+    </row>
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="4"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="H34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="K34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="4"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" s="31">
+        <v>203</v>
+      </c>
+      <c r="H36" s="31">
+        <v>13</v>
+      </c>
+      <c r="I36" s="31">
+        <v>22</v>
+      </c>
+      <c r="J36" s="31">
+        <v>41</v>
+      </c>
+      <c r="K36" s="31">
+        <v>36</v>
+      </c>
+      <c r="L36" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="6"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5099,7 +6685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -5150,7 +6736,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5161,25 +6747,25 @@
       <c r="F4" s="26">
         <v>1</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="32">
         <v>5</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="32">
         <v>0</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <v>5</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="32">
         <v>5</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="35">
         <v>0</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="38">
         <v>5</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <v>1</v>
       </c>
       <c r="N4" s="13"/>
@@ -5193,25 +6779,25 @@
       <c r="F5" s="26">
         <v>3</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="32">
         <v>8</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="32">
         <v>0</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="32">
         <v>10</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="32">
         <v>10</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>0</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="38">
         <v>5</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="38">
         <v>3</v>
       </c>
       <c r="N5" s="13"/>
@@ -5225,25 +6811,25 @@
       <c r="F6" s="27">
         <v>5</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>14</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>0</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="34">
         <v>15</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="34">
         <v>15</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="39">
         <v>0</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="40">
         <v>5</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="40">
         <v>6</v>
       </c>
       <c r="N6" s="7"/>
@@ -5254,28 +6840,28 @@
       <c r="C7" s="23"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="34">
+      <c r="F7" s="32">
         <v>3</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>6</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="32">
         <v>0</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="35">
         <v>7</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="38">
         <v>10</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>0</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="38">
         <v>5</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="38">
         <v>4</v>
       </c>
       <c r="N7" s="13"/>
@@ -5286,28 +6872,28 @@
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>6</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>12</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="33">
         <v>0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="36">
         <v>14</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <v>15</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>0</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="37">
         <v>5</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="37">
         <v>7</v>
       </c>
       <c r="N8" s="5"/>
@@ -5318,28 +6904,28 @@
       <c r="C9" s="23"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <v>5</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>8</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="32">
         <v>0</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <v>16</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="38">
         <v>18</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="38">
         <v>0</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="38">
         <v>5</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="38">
         <v>7</v>
       </c>
       <c r="N9" s="13"/>
@@ -5350,7 +6936,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>

--- a/仕様書（途中）/仕様書.xlsx
+++ b/仕様書（途中）/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouki imamura\Desktop\先輩塾制作\trunk\仕様書（途中）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouki imamura\Desktop\先輩塾用\先輩塾制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12460" windowHeight="7490" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="シーン" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -409,12 +409,85 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>player1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法防御</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素早さ</t>
+    <rPh sb="0" eb="2">
+      <t>スバヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +558,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,9 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -774,12 +858,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -792,33 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +935,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3742,6 +3907,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="8540750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>467500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848500" y="7674750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>458750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="839750" y="6681750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>227750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>704000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>513500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="894500" y="5720500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4077,445 +4418,445 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4528,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4538,420 +4879,420 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
     </row>
     <row r="32" spans="2:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="O32" t="s">
@@ -4960,24 +5301,24 @@
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="3"/>
       <c r="O33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P33" s="31" t="s">
+      <c r="P33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="Q33" s="60"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="4"/>
@@ -5003,7 +5344,7 @@
       <c r="P34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q34" s="61"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="4"/>
@@ -5024,7 +5365,7 @@
       <c r="P35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="61"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="4"/>
@@ -5042,10 +5383,10 @@
       <c r="O36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="52" t="s">
+      <c r="P36" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="Q36" s="61"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="4"/>
@@ -5066,7 +5407,7 @@
       <c r="P37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q37" s="62"/>
+      <c r="Q37" s="50"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="4"/>
@@ -5115,10 +5456,10 @@
       <c r="O40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="31" t="s">
+      <c r="P40" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="60"/>
+      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="4"/>
@@ -5136,41 +5477,41 @@
       <c r="O41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P41" s="52" t="s">
+      <c r="P41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="Q41" s="61"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="54" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="31"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31" t="s">
+      <c r="K42" s="28"/>
+      <c r="L42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="M42" s="3"/>
       <c r="O42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P42" s="52" t="s">
+      <c r="P42" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="Q42" s="61"/>
+      <c r="Q42" s="49"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="4"/>
@@ -5188,7 +5529,7 @@
         <v>36</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="55" t="s">
+      <c r="K43" s="43" t="s">
         <v>40</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -5201,10 +5542,10 @@
       <c r="P43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q43" s="61"/>
+      <c r="Q43" s="49"/>
     </row>
     <row r="44" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -5216,7 +5557,7 @@
         <v>37</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="53" t="s">
+      <c r="H44" s="41" t="s">
         <v>40</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -5234,33 +5575,33 @@
       <c r="P44" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q44" s="62"/>
+      <c r="Q44" s="50"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="4"/>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="40" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="52" t="s">
+      <c r="I45" s="40" t="s">
         <v>38</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="40" t="s">
         <v>38</v>
       </c>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="4"/>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="1"/>
@@ -5278,134 +5619,134 @@
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="46">
         <v>1</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="58" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="46">
         <v>1</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="56" t="s">
+      <c r="G47" s="34"/>
+      <c r="H47" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="46">
         <v>1</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="58" t="s">
+      <c r="J47" s="35"/>
+      <c r="K47" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="L47" s="58">
+      <c r="L47" s="46">
         <v>1</v>
       </c>
-      <c r="M47" s="47"/>
+      <c r="M47" s="35"/>
       <c r="O47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P47" s="31" t="s">
+      <c r="P47" s="28" t="s">
         <v>50</v>
       </c>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="59" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="57" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="44"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="59" t="s">
+      <c r="I48" s="32"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="L48" s="44"/>
-      <c r="M48" s="49"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="37"/>
       <c r="O48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P48" s="52" t="s">
+      <c r="P48" s="40" t="s">
         <v>50</v>
       </c>
       <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="59" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="57" t="s">
+      <c r="F49" s="32"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="59" t="s">
+      <c r="I49" s="32"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="L49" s="44"/>
-      <c r="M49" s="49"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="37"/>
       <c r="O49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P49" s="52" t="s">
+      <c r="P49" s="40" t="s">
         <v>50</v>
       </c>
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="57"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="49"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="37"/>
       <c r="O50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P50" s="52" t="s">
+      <c r="P50" s="40" t="s">
         <v>50</v>
       </c>
       <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="48"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="49"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="37"/>
       <c r="O51" s="6" t="s">
         <v>54</v>
       </c>
@@ -5415,362 +5756,362 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="48"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="49"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="37"/>
     </row>
     <row r="53" spans="2:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="50"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="51"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="39"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="42"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="30"/>
     </row>
     <row r="98" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="99" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31" t="s">
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="31"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="2"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -5783,8 +6124,8 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="4"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5793,19 +6134,27 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="5"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="1"/>
+      <c r="D102" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G102" s="5"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="3"/>
+      <c r="H102" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="5"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="4"/>
@@ -5838,73 +6187,129 @@
       <c r="I105" s="7"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="2"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E106" s="3"/>
-      <c r="F106" s="31"/>
+      <c r="F106" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
+      <c r="H106" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="4"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E107" s="5"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G107" s="5"/>
-      <c r="H107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="4"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="4"/>
+      <c r="B108" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G108" s="5"/>
-      <c r="H108" s="4"/>
+      <c r="H108" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="4"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G109" s="5"/>
-      <c r="H109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="4"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
+      <c r="B110" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="G110" s="5"/>
-      <c r="H110" s="4"/>
+      <c r="H110" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="4"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G111" s="5"/>
-      <c r="H111" s="4"/>
+      <c r="H111" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B112" s="6"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="6"/>
+      <c r="B112" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E112" s="7"/>
-      <c r="F112" s="14"/>
+      <c r="F112" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="6"/>
+      <c r="H112" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="I112" s="7"/>
     </row>
   </sheetData>
@@ -5926,58 +6331,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5990,7 +6395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -6030,13 +6435,13 @@
         <v>10</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -6550,43 +6955,43 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:15" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="30" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="4"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="2">
         <v>75</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="28">
         <v>200</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="28">
         <v>10</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="28">
         <v>20</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="28">
         <v>40</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="28">
         <v>35</v>
       </c>
       <c r="L33" s="3">
@@ -6595,9 +7000,9 @@
     </row>
     <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="4"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="6" t="s">
         <v>24</v>
       </c>
@@ -6635,25 +7040,25 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="4"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="2">
         <v>77</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="28">
         <v>203</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="28">
         <v>13</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="28">
         <v>22</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="28">
         <v>41</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="28">
         <v>36</v>
       </c>
       <c r="L36" s="3">
@@ -6662,9 +7067,9 @@
     </row>
     <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="6"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="6"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -6683,14 +7088,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O10"/>
+  <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
     <col min="13" max="13" width="13.08203125" customWidth="1"/>
@@ -6698,254 +7104,691 @@
     <col min="15" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:18" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:18" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="11"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="26">
+    <row r="4" spans="2:18" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="62"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53">
         <v>1</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="54">
         <v>5</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="54">
         <v>0</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="54">
         <v>5</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="54">
         <v>5</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="55">
         <v>0</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="56">
         <v>5</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="56">
         <v>1</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="11"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="26">
+      <c r="N4" s="71"/>
+      <c r="O4" s="80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="62"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53">
         <v>3</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="54">
         <v>8</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="54">
         <v>0</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="54">
         <v>10</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="54">
         <v>10</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="55">
         <v>0</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="56">
         <v>5</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="56">
         <v>3</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="2:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="27">
+      <c r="N5" s="71"/>
+      <c r="O5" s="81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="67"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58">
         <v>5</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="59">
         <v>14</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="59">
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="59">
         <v>15</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="59">
         <v>15</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="60">
         <v>0</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="61">
         <v>5</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="61">
         <v>6</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15" ht="77.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="11"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="32">
+      <c r="N6" s="73"/>
+      <c r="O6" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="77.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="62"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="54">
         <v>3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="54">
         <v>6</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="54">
         <v>0</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="55">
         <v>7</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="56">
         <v>10</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="56">
         <v>0</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="56">
         <v>5</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="56">
         <v>4</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="2:15" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="15"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="33">
+      <c r="N7" s="71"/>
+      <c r="O7" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64">
         <v>6</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="64">
         <v>12</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="64">
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="65">
         <v>14</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="66">
         <v>15</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="66">
         <v>0</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="66">
         <v>5</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="66">
         <v>7</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="2:15" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="11"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="32">
+      <c r="N8" s="74"/>
+      <c r="O8" s="83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="62"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="54">
         <v>5</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="54">
         <v>8</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="54">
         <v>0</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="55">
         <v>16</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="56">
         <v>18</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="56">
         <v>0</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="56">
         <v>5</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="56">
         <v>7</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="2:15" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="10"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="67"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="59">
+        <v>15</v>
+      </c>
+      <c r="G10" s="59">
+        <v>20</v>
+      </c>
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <v>18</v>
+      </c>
+      <c r="J10" s="61">
+        <v>47</v>
+      </c>
+      <c r="K10" s="61">
+        <v>0</v>
+      </c>
+      <c r="L10" s="61">
+        <v>47</v>
+      </c>
+      <c r="M10" s="61">
+        <v>15</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="68"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69">
+        <v>13</v>
+      </c>
+      <c r="G11" s="69">
+        <v>20</v>
+      </c>
+      <c r="H11" s="69">
+        <v>0</v>
+      </c>
+      <c r="I11" s="88">
+        <v>23</v>
+      </c>
+      <c r="J11" s="70">
+        <v>27</v>
+      </c>
+      <c r="K11" s="70">
+        <v>0</v>
+      </c>
+      <c r="L11" s="70">
+        <v>37</v>
+      </c>
+      <c r="M11" s="70">
+        <v>14</v>
+      </c>
+      <c r="N11" s="72"/>
+      <c r="O11" s="86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="68"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69">
+        <v>18</v>
+      </c>
+      <c r="G12" s="69">
+        <v>35</v>
+      </c>
+      <c r="H12" s="69">
+        <v>0</v>
+      </c>
+      <c r="I12" s="88">
+        <v>35</v>
+      </c>
+      <c r="J12" s="70">
+        <v>34</v>
+      </c>
+      <c r="K12" s="70">
+        <v>0</v>
+      </c>
+      <c r="L12" s="70">
+        <v>48</v>
+      </c>
+      <c r="M12" s="70">
+        <v>23</v>
+      </c>
+      <c r="N12" s="72"/>
+      <c r="O12" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="2:18" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="62"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="54">
+        <v>20</v>
+      </c>
+      <c r="G13" s="54">
+        <v>43</v>
+      </c>
+      <c r="H13" s="54">
+        <v>0</v>
+      </c>
+      <c r="I13" s="55">
+        <v>40</v>
+      </c>
+      <c r="J13" s="56">
+        <v>5</v>
+      </c>
+      <c r="K13" s="56">
+        <v>0</v>
+      </c>
+      <c r="L13" s="56">
+        <v>0</v>
+      </c>
+      <c r="M13" s="56">
+        <v>31</v>
+      </c>
+      <c r="N13" s="71"/>
+      <c r="O13" s="87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:18" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="2:18" ht="74.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="2"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="2"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="2"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="2"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" ht="82" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="2"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="2:15" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="2"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="2"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15" ht="84.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="11"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:15" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:15" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="2:15" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="2:15" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="2:15" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" ht="74.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="2:15" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="11"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
